--- a/ha-resource/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
+++ b/ha-resource/01_design/03_batch/設計書_3.0.健康情報登録バッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okazaki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD8B62F-4B5D-4A1A-897B-E6E39AF569EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA47F8F-39F5-43BA-836E-547330D2A9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="4530" windowWidth="21600" windowHeight="12855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="1455" windowWidth="24240" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+  <si>
+    <t>2.1.健康情報登録バッチ</t>
+  </si>
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -47,19 +50,16 @@
     <t>1.機能一覧</t>
   </si>
   <si>
-    <t>2.1.健康情報登録バッチ</t>
+    <t>1.1.健康情報登録バッチ</t>
   </si>
   <si>
     <t>更新日時</t>
   </si>
   <si>
-    <t>1.1.健康情報登録バッチ</t>
+    <t>指定されたディレクトリに配置されたJSONをもとに健康情報登録APIを実行する</t>
   </si>
   <si>
     <t>バージョン</t>
-  </si>
-  <si>
-    <t>指定されたディレクトリに配置されたJSONをもとに健康情報登録APIを実行する</t>
   </si>
   <si>
     <t>内容</t>
@@ -68,19 +68,25 @@
     <t>2.1.1.バッチ仕様</t>
   </si>
   <si>
+    <t>バッチ仕様</t>
+  </si>
+  <si>
     <t>1.00</t>
   </si>
   <si>
     <t>新規作成</t>
   </si>
   <si>
-    <t>バッチ仕様</t>
-  </si>
-  <si>
     <t>シェル名</t>
   </si>
   <si>
     <t>HealthInfoRegistBatch.sh</t>
+  </si>
+  <si>
+    <t>文字コード</t>
+  </si>
+  <si>
+    <t>Shift-JIS</t>
   </si>
   <si>
     <t>起動方法/タイミング</t>
@@ -101,16 +107,37 @@
     <t>処理詳細</t>
   </si>
   <si>
+    <t>例外概要</t>
+  </si>
+  <si>
+    <t>例外詳細</t>
+  </si>
+  <si>
+    <t>健康情報ファイルを取得</t>
+  </si>
+  <si>
+    <t>healthInfo.properties#healthInfoRegistBatchFilePath配下のファイルをすべて取得</t>
+  </si>
+  <si>
+    <t>ファイル存在エラー</t>
+  </si>
+  <si>
     <t>3.1. ファイルIF</t>
+  </si>
+  <si>
+    <t>#1より取得したファイル毎に処理</t>
+  </si>
+  <si>
+    <t>健康情報ファイルを読込</t>
+  </si>
+  <si>
+    <t>3.1.1.健康情報ファイル</t>
   </si>
   <si>
     <t>入力</t>
   </si>
   <si>
-    <t>例外概要</t>
-  </si>
-  <si>
-    <t>例外詳細</t>
+    <t>3.1.1.1 概要</t>
   </si>
   <si>
     <t>半角数字</t>
@@ -120,6 +147,13 @@
   </si>
   <si>
     <t>表示</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>エラーコード：CE0001
+エラーメッセージ：実行時にエラーが発生しました</t>
   </si>
   <si>
     <t>半角数字とピリオド</t>
@@ -155,7 +189,7 @@
     <t>半角英数記号</t>
   </si>
   <si>
-    <t>健康情報ファイルを取得</t>
+    <t>API情報を設定</t>
   </si>
   <si>
     <t>YYYY</t>
@@ -164,10 +198,19 @@
     <t>MM</t>
   </si>
   <si>
+    <t>ファイル形式</t>
+  </si>
+  <si>
+    <t>2.1.4.1.API設定情報 参照</t>
+  </si>
+  <si>
     <t>DD</t>
   </si>
   <si>
     <t>YYYYMM</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
   <si>
     <t>YYYYMMDD</t>
@@ -182,31 +225,13 @@
     <t>MI</t>
   </si>
   <si>
-    <t>healthInfo.properties#healthInfoRegistBatchFilePath配下のファイルをすべて取得</t>
+    <t>UTF-8</t>
   </si>
   <si>
-    <t>3.1.1.1 概要</t>
+    <t>妥当性チェック</t>
   </si>
   <si>
-    <t>ファイル存在エラー</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
-    <t>#1より取得したファイル毎に処理</t>
-  </si>
-  <si>
-    <t>ファイル形式</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>文字コード</t>
-  </si>
-  <si>
-    <t>UTF-8</t>
+    <t>設計書_2.0.健康情報API#健康情報登録APIの妥当性チェック 参照</t>
   </si>
   <si>
     <t>ファイル配置場所</t>
@@ -215,53 +240,34 @@
     <t>C:\app\data\healthInfoRegist</t>
   </si>
   <si>
-    <t>3.1.1.2 ファイル内容</t>
+    <t>API実行</t>
   </si>
   <si>
-    <t>JSONファイルを読込</t>
+    <t>3.1.1.2 ファイル内容</t>
   </si>
   <si>
     <t>userId</t>
   </si>
   <si>
-    <t>エラーコード：CE0001
-エラーメッセージ：実行時にエラーが発生しました</t>
-  </si>
-  <si>
     <t>apiKey</t>
   </si>
   <si>
-    <t>API情報を設定</t>
-  </si>
-  <si>
-    <t>2.1.4.1.API設定情報 参照</t>
+    <t>2.1.3.DB処理</t>
   </si>
   <si>
     <t>healthInfoRequestData[i]</t>
   </si>
   <si>
+    <t>2.1.4.備考</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
-    <t>weight</t>
+    <t>2.1.4.1.API設定情報</t>
   </si>
   <si>
-    <t>妥当性チェック</t>
-  </si>
-  <si>
-    <t>設計書_2.0.健康情報API#健康情報登録APIの妥当性チェック 参照</t>
-  </si>
-  <si>
-    <t>API実行</t>
-  </si>
-  <si>
-    <t>2.1.3.DB処理</t>
-  </si>
-  <si>
-    <t>2.1.4.備考</t>
-  </si>
-  <si>
-    <t>2.1.4.1.API設定情報</t>
+    <t>weight</t>
   </si>
   <si>
     <t>項目名</t>
@@ -286,13 +292,6 @@
   </si>
   <si>
     <t>testMode</t>
-  </si>
-  <si>
-    <t>3.1.1.健康情報ファイル</t>
-    <rPh sb="6" eb="10">
-      <t>ケンコウジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -333,13 +332,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
@@ -506,6 +505,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -531,9 +552,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -553,31 +572,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,7 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,9 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -648,23 +644,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -680,33 +668,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -714,51 +693,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -768,8 +728,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -795,7 +773,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,48 +788,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,13 +820,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1096,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1156,681 +1116,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="97" t="s">
-        <v>3</v>
+      <c r="B3" s="82" t="s">
+        <v>4</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="97" t="s">
-        <v>5</v>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82" t="s">
+        <v>6</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="97" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="94"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="81"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="96">
+      <c r="B4" s="83">
         <v>43771</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="94"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="81"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="94"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="81"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="94"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="94"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="81"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="94"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="81"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="94"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="81"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="94"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="81"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="94"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="81"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="81"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="94"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="94"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="94"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="81"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="94"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="81"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="94"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="94"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="81"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="94"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="81"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="94"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="81"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="94"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="81"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="94"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="81"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="94"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="81"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="94"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="81"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1893,75 +1853,75 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="J21:Z21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="J25:Z25"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F13:I13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,7 +1936,9 @@
   </sheetPr>
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1985,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2090,7 +2052,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2144,7 +2106,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3582,10 +3544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3595,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3857,7 +3819,7 @@
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
     </row>
-    <row r="5" spans="1:63" collapsed="1">
+    <row r="5" spans="1:63">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3922,10 +3884,10 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
     </row>
-    <row r="6" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:63" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3971,221 +3933,225 @@
       <c r="AR6" s="12"/>
       <c r="AS6" s="13"/>
       <c r="AT6" s="14"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
     </row>
-    <row r="7" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:63" outlineLevel="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="98" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="99" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="94"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="80"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="80"/>
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="81"/>
       <c r="AT7" s="14"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
     </row>
-    <row r="8" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:63" outlineLevel="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="100" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="94"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="81"/>
       <c r="AT8" s="14"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" outlineLevel="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="81"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
@@ -4193,785 +4159,785 @@
       <c r="BK9" s="3"/>
     </row>
     <row r="10" spans="1:63">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-    </row>
-    <row r="11" spans="1:63" collapsed="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-    </row>
-    <row r="12" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="23"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
     </row>
-    <row r="13" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="33">
-        <f t="shared" ref="B13:B19" si="0">ROW()-12</f>
-        <v>1</v>
+    <row r="13" spans="1:63" outlineLevel="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>19</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>38</v>
+      <c r="C13" s="19" t="s">
+        <v>20</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39" t="s">
-        <v>47</v>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="19" t="s">
+        <v>21</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="41" t="s">
-        <v>49</v>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23" t="s">
+        <v>22</v>
       </c>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="41" t="s">
-        <v>15</v>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="23" t="s">
+        <v>23</v>
       </c>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="38"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="22"/>
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
     </row>
-    <row r="14" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
+    <row r="14" spans="1:63" outlineLevel="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="25">
+        <f t="shared" ref="B14:B20" si="0">ROW()-13</f>
+        <v>1</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>51</v>
+      <c r="C14" s="26" t="s">
+        <v>24</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="47"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="29"/>
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
     </row>
-    <row r="15" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="33">
+    <row r="15" spans="1:63" outlineLevel="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="101" t="s">
-        <v>59</v>
+      <c r="C15" s="35" t="s">
+        <v>28</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="38"/>
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
     </row>
-    <row r="16" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="33">
+    <row r="16" spans="1:63" outlineLevel="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="101" t="s">
-        <v>63</v>
+      <c r="C16" s="39"/>
+      <c r="D16" s="88" t="s">
+        <v>29</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="59" t="s">
-        <v>64</v>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="40" t="s">
+        <v>17</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="50" t="s">
-        <v>15</v>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="40" t="s">
+        <v>37</v>
       </c>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="64"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="42"/>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
     </row>
-    <row r="17" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="33">
+    <row r="17" spans="1:63" outlineLevel="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="66" t="s">
-        <v>68</v>
+      <c r="C17" s="39"/>
+      <c r="D17" s="88" t="s">
+        <v>49</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="67" t="s">
-        <v>69</v>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="49" t="s">
+        <v>53</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="50" t="s">
-        <v>15</v>
+      <c r="L17" s="41"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="40" t="s">
+        <v>17</v>
       </c>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="50" t="s">
-        <v>15</v>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="40" t="s">
+        <v>17</v>
       </c>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="62"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="64"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="51"/>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
     </row>
-    <row r="18" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="33">
+    <row r="18" spans="1:63" outlineLevel="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="66" t="s">
-        <v>70</v>
+      <c r="C18" s="39"/>
+      <c r="D18" s="52" t="s">
+        <v>62</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="50" t="s">
-        <v>15</v>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="54" t="s">
+        <v>63</v>
       </c>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="50" t="s">
-        <v>15</v>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="40" t="s">
+        <v>17</v>
       </c>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="64"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="51"/>
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
     </row>
-    <row r="19" spans="1:63" hidden="1" outlineLevel="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="33">
+    <row r="19" spans="1:63" outlineLevel="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="70"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="50"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="50"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="50"/>
+      <c r="BE19" s="50"/>
+      <c r="BF19" s="51"/>
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
     </row>
-    <row r="20" spans="1:63">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
+    <row r="20" spans="1:63" outlineLevel="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="60"/>
       <c r="BG20" s="3"/>
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
@@ -4979,136 +4945,136 @@
       <c r="BK20" s="3"/>
     </row>
     <row r="21" spans="1:63">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-    </row>
-    <row r="22" spans="1:63">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
+      <c r="AY22" s="8"/>
+      <c r="AZ22" s="8"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="8"/>
+      <c r="BG22" s="8"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="8"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="8"/>
     </row>
     <row r="23" spans="1:63">
       <c r="A23" s="3"/>
@@ -5176,142 +5142,140 @@
       <c r="BK23" s="3"/>
     </row>
     <row r="24" spans="1:63">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
-    </row>
-    <row r="25" spans="1:63" collapsed="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-    </row>
-    <row r="26" spans="1:63" hidden="1" outlineLevel="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+    </row>
+    <row r="26" spans="1:63">
       <c r="A26" s="3"/>
-      <c r="B26" s="40" t="s">
-        <v>73</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -5374,68 +5338,60 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
     </row>
-    <row r="27" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:63" outlineLevel="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="20" t="s">
+      <c r="B27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="73"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="71"/>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="72"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
@@ -5449,64 +5405,68 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
     </row>
-    <row r="28" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:63" outlineLevel="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="78"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="81" t="s">
+      <c r="S28" s="66"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="80" t="s">
-        <v>79</v>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="69" t="s">
+        <v>76</v>
       </c>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="79"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="65"/>
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
@@ -5520,64 +5480,64 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
     </row>
-    <row r="29" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:63" outlineLevel="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="84" t="s">
-        <v>53</v>
+      <c r="B29" s="44"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="73" t="s">
+        <v>79</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="80" t="s">
-        <v>60</v>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="74" t="s">
+        <v>80</v>
       </c>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="78"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="80" t="s">
-        <v>60</v>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="73" t="s">
+        <v>81</v>
       </c>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="79"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="71"/>
+      <c r="AW29" s="71"/>
+      <c r="AX29" s="71"/>
+      <c r="AY29" s="72"/>
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
@@ -5591,62 +5551,64 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
     </row>
-    <row r="30" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:63" outlineLevel="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="87" t="s">
-        <v>62</v>
+      <c r="B30" s="44"/>
+      <c r="C30" s="77" t="s">
+        <v>56</v>
       </c>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="86"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="78"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="80" t="s">
-        <v>62</v>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="73" t="s">
+        <v>68</v>
       </c>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="79"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="71"/>
+      <c r="AY30" s="72"/>
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
@@ -5660,62 +5622,62 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
     </row>
-    <row r="31" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:63" outlineLevel="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="87" t="s">
-        <v>66</v>
+      <c r="B31" s="44"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="73" t="s">
+        <v>69</v>
       </c>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="78"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="78"/>
-      <c r="AK31" s="86"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="78"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="80" t="s">
-        <v>66</v>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="73" t="s">
+        <v>69</v>
       </c>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="78"/>
-      <c r="AV31" s="78"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="78"/>
-      <c r="AY31" s="79"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="71"/>
+      <c r="AY31" s="72"/>
       <c r="AZ31" s="3"/>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
@@ -5729,62 +5691,62 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
     </row>
-    <row r="32" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:63" outlineLevel="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="87" t="s">
-        <v>67</v>
+      <c r="B32" s="44"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="73" t="s">
+        <v>73</v>
       </c>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="78"/>
-      <c r="AK32" s="86"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="78"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="80" t="s">
-        <v>67</v>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="73" t="s">
+        <v>73</v>
       </c>
-      <c r="AT32" s="78"/>
-      <c r="AU32" s="78"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="79"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
+      <c r="AW32" s="71"/>
+      <c r="AX32" s="71"/>
+      <c r="AY32" s="72"/>
       <c r="AZ32" s="3"/>
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
@@ -5798,62 +5760,62 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:63" outlineLevel="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="80" t="s">
-        <v>80</v>
+      <c r="B33" s="44"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73" t="s">
+        <v>75</v>
       </c>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="79"/>
-      <c r="AS33" s="80" t="s">
-        <v>81</v>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="73" t="s">
+        <v>75</v>
       </c>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="78"/>
-      <c r="AY33" s="79"/>
+      <c r="AT33" s="71"/>
+      <c r="AU33" s="71"/>
+      <c r="AV33" s="71"/>
+      <c r="AW33" s="71"/>
+      <c r="AX33" s="71"/>
+      <c r="AY33" s="72"/>
       <c r="AZ33" s="3"/>
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
@@ -5867,58 +5829,62 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
     </row>
-    <row r="34" spans="1:63" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:63" outlineLevel="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="71"/>
+      <c r="AN34" s="71"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="71"/>
+      <c r="AQ34" s="71"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT34" s="71"/>
+      <c r="AU34" s="71"/>
+      <c r="AV34" s="71"/>
+      <c r="AW34" s="71"/>
+      <c r="AX34" s="71"/>
+      <c r="AY34" s="72"/>
       <c r="AZ34" s="3"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
@@ -5932,9 +5898,9 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" outlineLevel="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5997,14 +5963,81 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
     </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="3"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D16:J16"/>
+  <mergeCells count="8">
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:AS8"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:AS7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AS8"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:AS9"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -6012,12 +6045,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId2"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="3" max="16383" man="1"/>
-    <brk id="9" max="16383" man="1"/>
-    <brk id="20" max="16383" man="1"/>
-    <brk id="23" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -6028,8 +6055,8 @@
   </sheetPr>
   <dimension ref="A1:BF19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -6037,69 +6064,69 @@
     <col min="1" max="58" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="16.5">
-      <c r="A1" s="24" t="s">
-        <v>20</v>
+    <row r="1" spans="1:58" ht="15.75" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-    </row>
-    <row r="2" spans="1:58" ht="16.5">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6159,7 +6186,7 @@
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" spans="1:58" ht="16.5">
+    <row r="3" spans="1:58">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6219,69 +6246,69 @@
       <c r="BE3" s="3"/>
       <c r="BF3" s="3"/>
     </row>
-    <row r="4" spans="1:58" ht="16.5">
-      <c r="A4" s="24" t="s">
-        <v>82</v>
+    <row r="4" spans="1:58" ht="15.75" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>30</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29"/>
-    </row>
-    <row r="5" spans="1:58" ht="16.5">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6341,26 +6368,26 @@
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="6" spans="1:58" outlineLevel="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="40" t="s">
-        <v>48</v>
+      <c r="B6" s="44" t="s">
+        <v>32</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -6403,45 +6430,45 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="7" spans="1:58" outlineLevel="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="98" t="s">
-        <v>50</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="85" t="s">
+        <v>36</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="100" t="s">
-        <v>15</v>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="87" t="s">
+        <v>17</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="81"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -6467,109 +6494,109 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:58" outlineLevel="1">
+      <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="100" t="s">
-        <v>53</v>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="87" t="s">
+        <v>56</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-    </row>
-    <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+    </row>
+    <row r="9" spans="1:58" outlineLevel="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="98" t="s">
-        <v>54</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="85" t="s">
+        <v>14</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="100" t="s">
-        <v>55</v>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="87" t="s">
+        <v>61</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="94"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="81"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
@@ -6595,88 +6622,88 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:58" outlineLevel="1">
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="98" t="s">
-        <v>56</v>
+      <c r="C10" s="85" t="s">
+        <v>64</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="100" t="s">
-        <v>57</v>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="87" t="s">
+        <v>65</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="45"/>
-      <c r="BB10" s="45"/>
-      <c r="BC10" s="45"/>
-      <c r="BD10" s="45"/>
-      <c r="BE10" s="45"/>
-      <c r="BF10" s="45"/>
-    </row>
-    <row r="11" spans="1:58" ht="16.5" outlineLevel="1">
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+    </row>
+    <row r="11" spans="1:58" outlineLevel="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -6719,19 +6746,19 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="12" spans="1:58" outlineLevel="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="40" t="s">
-        <v>58</v>
+      <c r="B12" s="44" t="s">
+        <v>67</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -6781,41 +6808,41 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="13" spans="1:58" outlineLevel="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="52"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="58"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
@@ -6841,47 +6868,47 @@
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="14" spans="1:58" outlineLevel="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="102" t="s">
-        <v>60</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="91" t="s">
+        <v>68</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="102" t="s">
-        <v>35</v>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="91" t="s">
+        <v>46</v>
       </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="102" t="s">
-        <v>25</v>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="91" t="s">
+        <v>34</v>
       </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="58"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="61"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -6907,48 +6934,48 @@
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" spans="1:58" ht="16.5" outlineLevel="1">
+    <row r="15" spans="1:58" outlineLevel="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="102" t="s">
-        <v>62</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="91" t="s">
+        <v>69</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="102" t="s">
-        <v>35</v>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="91" t="s">
+        <v>46</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="102" t="s">
-        <v>25</v>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="91" t="s">
+        <v>34</v>
       </c>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="45"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
@@ -6973,204 +7000,204 @@
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:58" outlineLevel="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="45"/>
-      <c r="BC16" s="45"/>
-      <c r="BD16" s="45"/>
-      <c r="BE16" s="45"/>
-      <c r="BF16" s="45"/>
-    </row>
-    <row r="17" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A17" s="45"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+    </row>
+    <row r="17" spans="1:58" outlineLevel="1">
+      <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="103" t="s">
-        <v>66</v>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="89" t="s">
+        <v>73</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="101" t="s">
-        <v>27</v>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="88" t="s">
+        <v>38</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="102" t="s">
-        <v>25</v>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="91" t="s">
+        <v>34</v>
       </c>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-    </row>
-    <row r="18" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A18" s="45"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+    </row>
+    <row r="18" spans="1:58" outlineLevel="1">
+      <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="102" t="s">
-        <v>67</v>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="91" t="s">
+        <v>75</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="101" t="s">
-        <v>27</v>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="88" t="s">
+        <v>38</v>
       </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="102" t="s">
-        <v>25</v>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="91" t="s">
+        <v>34</v>
       </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-    </row>
-    <row r="19" spans="1:58" ht="16.5">
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7229,33 +7256,30 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="D14:I14"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:AH10"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:AH7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I7:AH7"/>
     <mergeCell ref="I9:AH9"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="3" max="16383" man="1"/>
-  </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -7285,7 +7309,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7296,325 +7320,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="B1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="C1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>36</v>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="32" t="s">
+      <c r="C2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="32" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32" t="s">
+      <c r="B3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="32" t="s">
+      <c r="C3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32" t="s">
+      <c r="B5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="48"/>
+      <c r="B13" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
